--- a/lsh_data_processing/priors.xlsx
+++ b/lsh_data_processing/priors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjs/projects/covid/BCS/lsh_data_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE93828F-87A5-C047-B048-3B04C30A9106}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FA7126-856C-2E4C-8477-6B3257B3EE14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1460" windowWidth="24640" windowHeight="14000" activeTab="1" xr2:uid="{7F79DD71-D98E-0443-B827-9099C228FD6A}"/>
+    <workbookView xWindow="5240" yWindow="2500" windowWidth="25280" windowHeight="12100" activeTab="1" xr2:uid="{7F79DD71-D98E-0443-B827-9099C228FD6A}"/>
   </bookViews>
   <sheets>
     <sheet name="transitions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="22">
   <si>
     <t>location</t>
   </si>
@@ -133,10 +133,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E201DD4-7E00-8D40-9149-E9CE93A665C4}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -672,6 +674,18 @@
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C11" s="4">
+        <v>64</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
@@ -680,6 +694,18 @@
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C12" s="4">
+        <v>172</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
@@ -688,6 +714,18 @@
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C13" s="4">
+        <v>316</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3.16E-3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
@@ -696,6 +734,18 @@
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C14" s="4">
+        <v>292</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.03E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
@@ -704,6 +754,18 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C15" s="4">
+        <v>353</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.222</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
@@ -712,30 +774,81 @@
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="4">
+        <v>305</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5.57E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="4">
+        <v>213</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.155</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F17" s="2">
+        <v>9.3900000000000008E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="4">
+        <v>62</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4.8399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C19" s="4">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>8.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="C20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -744,10 +857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACECB85-AB2D-D641-9663-9F62843617BA}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -841,6 +954,77 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <f>D7-D8</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
